--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>HS161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>CS151 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -870,22 +870,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>CS151 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +514,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -902,22 +902,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,6 +1023,11 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1042,7 +1047,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1064,6 +1069,11 @@
           <t>Ramesh Athe</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1083,7 +1093,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1105,6 +1115,11 @@
           <t>Abdul Wahid</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1124,7 +1139,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1146,6 +1161,11 @@
           <t>Chinmayananda</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1165,7 +1185,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1187,6 +1207,11 @@
           <t>Prakash Pawar</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1206,7 +1231,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1228,6 +1253,11 @@
           <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1247,7 +1277,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1269,6 +1299,11 @@
           <t>Rajesh N S</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1345,11 @@
           <t>Ravishankar, Vivekraj</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1351,6 +1391,11 @@
           <t>Vivekraj</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1392,6 +1437,11 @@
           <t>Mallikarjun Kande</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1433,6 +1483,11 @@
           <t>Chandrika Kamat</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1474,6 +1529,11 @@
           <t>Anand B</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1515,6 +1575,11 @@
           <t>Rajesh N S</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1556,6 +1621,11 @@
           <t>Sandesh Phalke</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1597,6 +1667,11 @@
           <t>Rajesh N S</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1638,26 +1713,31 @@
           <t>Girish Revadigar</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1676,29 +1756,34 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1717,29 +1802,34 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1758,142 +1848,162 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Animesh Roy</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Introduction to Physics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1922,19 +2032,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ravishankar</t>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1949,33 +2064,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2004,19 +2124,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mallikarjun K</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Computational Thinking</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Chandrika Ka...</t>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2086,19 +2216,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2127,19 +2262,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Basics of Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,33 +2294,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sandesh Phalk...</t>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2195,33 +2340,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to C Programming</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2250,29 +2400,34 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2291,70 +2446,80 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2373,499 +2538,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Manjunath</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Introduction to Physics</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Ravishankar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Vivekraj</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Computational Thinking</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Chandrika Kamat</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Anand B</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Sandesh Phalke</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Introduction to C Programming</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
           <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -3239,7 +2917,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3271,12 +2949,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3308,12 +2986,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>MA162</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,22 +472,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -570,22 +573,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -629,12 +632,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,7 +652,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,12 +742,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -754,7 +757,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,22 +774,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -899,22 +902,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -952,6 +955,3371 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -469,12 +469,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,27 +565,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,22 +739,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>HS161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,22 +771,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,27 +835,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -62,7 +62,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill/>
     </fill>
@@ -131,14 +131,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00b584e0"/>
-        <bgColor rgb="00b584e0"/>
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b584e0"/>
+        <bgColor rgb="00b584e0"/>
       </patternFill>
     </fill>
     <fill>
@@ -240,18 +246,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -345,6 +351,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1250,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,7 +1272,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1297,6 +1307,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1329,6 +1340,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1338,16 +1350,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
@@ -1357,16 +1360,7 @@
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -1379,6 +1373,7 @@
           <t>HS161 [C202]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1411,6 +1406,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1443,6 +1439,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1462,7 +1459,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1475,6 +1472,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1494,7 +1492,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1504,18 +1502,10 @@
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-CS151 (Tutorial) [C205]
-HS157 (Tutorial) [C302]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]
-HS156 (Tutorial) [C102]
-HS152 (Tutorial) [C104]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1548,6 +1538,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1580,6 +1571,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1612,6 +1604,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1620,6 +1613,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1628,6 +1622,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -1640,6 +1635,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -1652,6 +1648,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -1674,8 +1671,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -1698,8 +1708,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -1722,8 +1745,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -1746,8 +1782,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -1770,8 +1819,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -1794,8 +1856,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -1818,8 +1893,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -1828,6 +1916,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -1840,6 +1929,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -1872,6 +1962,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1884,14 +1975,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1904,6 +1995,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1916,14 +2008,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1936,6 +2028,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1948,14 +2041,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1968,6 +2061,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1980,14 +2074,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2000,6 +2094,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2012,14 +2107,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2032,6 +2127,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2044,14 +2140,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2064,6 +2160,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2076,14 +2173,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2096,6 +2193,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2108,14 +2206,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C32" s="33" t="inlineStr">
+      <c r="C32" s="34" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2128,6 +2226,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -2140,14 +2239,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="35" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2160,6 +2259,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -2172,14 +2272,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" s="36" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2192,10 +2292,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2209,7 +2310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,7 +2323,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2256,6 +2358,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2288,6 +2391,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2297,35 +2401,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -2338,6 +2424,7 @@
           <t>HS161 [C203]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2347,17 +2434,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -2370,6 +2457,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2402,6 +2490,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2411,22 +2500,22 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2434,6 +2523,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2453,28 +2543,20 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-CS151 (Tutorial) [C205]
-HS157 (Tutorial) [C302]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]
-HS156 (Tutorial) [C102]
-HS152 (Tutorial) [C104]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2484,12 +2566,12 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -2507,6 +2589,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2539,6 +2622,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2571,6 +2655,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2579,6 +2664,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2587,6 +2673,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -2599,6 +2686,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -2611,6 +2699,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -2633,8 +2722,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -2657,8 +2759,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -2681,8 +2796,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -2705,8 +2833,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -2729,8 +2870,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -2753,8 +2907,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -2777,8 +2944,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -2787,6 +2967,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -2799,6 +2980,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -2831,6 +3013,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2843,14 +3026,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2863,6 +3046,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2875,14 +3059,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2895,6 +3079,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2907,14 +3092,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2927,6 +3112,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2939,14 +3125,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2959,6 +3145,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2971,14 +3158,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2991,6 +3178,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3003,14 +3191,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3023,6 +3211,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3035,14 +3224,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3055,6 +3244,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3067,14 +3257,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C32" s="33" t="inlineStr">
+      <c r="C32" s="34" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3087,6 +3277,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3099,14 +3290,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="35" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3119,6 +3310,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -3131,14 +3323,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" s="36" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3151,10 +3343,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3168,7 +3361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3181,7 +3374,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3215,6 +3409,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3247,6 +3442,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3254,16 +3450,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -3271,16 +3460,9 @@
           <t>CS161 [C202]</t>
         </is>
       </c>
-      <c r="D3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3293,6 +3475,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3312,7 +3495,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3325,6 +3508,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3357,6 +3541,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3371,7 +3556,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
@@ -3389,6 +3574,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3416,18 +3602,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
-        <is>
-          <t>HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3442,7 +3622,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3460,6 +3640,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3492,6 +3673,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3524,6 +3706,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3532,6 +3715,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3540,6 +3724,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -3552,6 +3737,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -3564,6 +3750,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -3586,8 +3773,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -3610,8 +3810,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -3634,8 +3847,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -3658,8 +3884,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -3682,8 +3921,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -3706,8 +3958,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -3730,8 +3995,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -3740,6 +4018,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -3752,6 +4031,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -3784,6 +4064,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3796,14 +4077,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3816,6 +4097,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3828,14 +4110,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3848,6 +4130,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3860,14 +4143,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3880,6 +4163,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3892,14 +4176,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3912,6 +4196,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3924,14 +4209,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3944,6 +4229,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3956,14 +4242,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3976,6 +4262,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3988,14 +4275,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4008,6 +4295,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -4020,14 +4308,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C32" s="33" t="inlineStr">
+      <c r="C32" s="34" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4040,6 +4328,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -4052,14 +4341,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="35" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4072,6 +4361,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -4084,14 +4374,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" s="36" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4104,10 +4394,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -4121,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4134,7 +4425,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4168,6 +4460,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -4200,6 +4493,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -4207,16 +4501,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4224,16 +4511,9 @@
           <t>CS161 [C101]</t>
         </is>
       </c>
-      <c r="D3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -4246,6 +4526,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -4255,7 +4536,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -4265,7 +4546,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -4278,6 +4559,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -4310,6 +4592,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -4319,17 +4602,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -4342,6 +4625,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -4351,7 +4635,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -4369,18 +4653,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
-        <is>
-          <t>HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -4390,12 +4668,12 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C102]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4413,6 +4691,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -4445,6 +4724,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -4477,6 +4757,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -4485,6 +4766,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -4493,6 +4775,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -4505,6 +4788,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -4517,6 +4801,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -4539,8 +4824,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -4563,8 +4861,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -4587,8 +4898,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -4611,8 +4935,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -4635,8 +4972,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -4659,8 +5009,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -4683,8 +5046,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -4693,6 +5069,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -4705,6 +5082,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -4737,6 +5115,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -4749,14 +5128,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4769,6 +5148,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -4781,14 +5161,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4801,6 +5181,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -4813,14 +5194,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4833,6 +5214,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -4845,14 +5227,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4865,6 +5247,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -4877,14 +5260,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4897,6 +5280,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -4909,14 +5293,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4929,6 +5313,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -4941,14 +5326,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4961,6 +5346,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -4973,14 +5359,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C32" s="33" t="inlineStr">
+      <c r="C32" s="34" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4993,6 +5379,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -5005,14 +5392,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="35" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -5025,6 +5412,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -5037,14 +5425,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" s="36" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -5057,10 +5445,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -5074,7 +5463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5087,7 +5476,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5121,6 +5511,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -5153,6 +5544,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -5160,11 +5552,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-CS151 [C205]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5172,11 +5562,9 @@
           <t>CS161 [C102]</t>
         </is>
       </c>
-      <c r="D3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-CS151 [C205]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -5189,6 +5577,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -5198,7 +5587,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -5208,7 +5597,7 @@
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -5221,6 +5610,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -5253,6 +5643,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -5262,17 +5653,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -5285,6 +5676,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -5294,7 +5686,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -5312,13 +5704,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
-        <is>
-          <t>HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-CS151 (Tutorial) [C205]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -5328,17 +5719,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -5351,6 +5742,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -5370,7 +5762,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -5383,6 +5775,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -5415,6 +5808,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -5423,6 +5817,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -5431,6 +5826,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -5443,6 +5839,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -5455,6 +5852,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -5477,8 +5875,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -5501,8 +5912,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -5525,8 +5949,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -5549,8 +5986,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -5573,8 +6023,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -5597,8 +6060,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -5621,8 +6097,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -5631,6 +6120,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -5643,6 +6133,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -5675,6 +6166,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -5687,14 +6179,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -5707,6 +6199,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -5719,14 +6212,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -5739,6 +6232,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -5751,14 +6245,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -5771,6 +6265,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -5783,14 +6278,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -5803,6 +6298,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -5815,14 +6311,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -5835,6 +6331,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -5847,14 +6344,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -5867,6 +6364,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -5879,14 +6377,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -5899,6 +6397,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -5911,14 +6410,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C32" s="33" t="inlineStr">
+      <c r="C32" s="34" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -5931,6 +6430,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -5943,14 +6443,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="35" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -5963,6 +6463,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -5975,14 +6476,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" s="36" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -5995,10 +6496,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -6012,7 +6514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6025,7 +6527,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6059,6 +6562,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -6091,6 +6595,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -6098,11 +6603,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-CS151 [C205]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -6110,11 +6613,9 @@
           <t>CS161 [C104]</t>
         </is>
       </c>
-      <c r="D3" s="30" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-CS151 [C205]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -6127,6 +6628,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -6136,7 +6638,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -6146,7 +6648,7 @@
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -6159,6 +6661,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -6191,6 +6694,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -6200,17 +6704,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -6223,6 +6727,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -6232,7 +6737,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -6250,13 +6755,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
-        <is>
-          <t>HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-CS151 (Tutorial) [C205]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -6266,17 +6770,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -6289,6 +6793,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -6308,7 +6813,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -6321,6 +6826,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -6353,6 +6859,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -6361,6 +6868,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -6369,6 +6877,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -6381,6 +6890,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -6393,6 +6903,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -6415,8 +6926,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -6439,8 +6963,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -6463,8 +7000,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -6487,8 +7037,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -6511,8 +7074,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -6535,8 +7111,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -6559,8 +7148,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -6569,6 +7171,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -6581,6 +7184,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -6613,6 +7217,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -6625,14 +7230,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -6645,6 +7250,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -6657,14 +7263,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -6677,6 +7283,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -6689,14 +7296,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -6709,6 +7316,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -6721,14 +7329,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -6741,6 +7349,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -6753,14 +7362,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -6773,6 +7382,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -6785,14 +7395,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -6805,6 +7415,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -6817,14 +7428,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -6837,6 +7448,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -6849,14 +7461,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C32" s="33" t="inlineStr">
+      <c r="C32" s="34" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -6869,6 +7481,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -6881,14 +7494,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="35" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -6901,6 +7514,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -6913,14 +7527,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" s="36" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -6933,10 +7547,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2015,12 +2015,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2147,12 +2147,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2279,12 +2279,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2434,17 +2434,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -2500,22 +2500,22 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2543,12 +2543,12 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3264,12 +3264,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4150,12 +4150,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4282,12 +4282,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4348,12 +4348,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -5201,12 +5201,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -5267,12 +5267,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -5366,12 +5366,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -5399,12 +5399,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -5658,12 +5658,12 @@
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -5719,17 +5719,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C102]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -6219,12 +6219,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -6285,12 +6285,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -6384,12 +6384,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -6417,12 +6417,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -6450,12 +6450,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -6483,12 +6483,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -6770,17 +6770,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C203]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -7270,12 +7270,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -7303,12 +7303,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -7369,12 +7369,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -7402,12 +7402,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -7435,12 +7435,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -7468,12 +7468,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -772,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +784,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -824,6 +825,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -851,6 +857,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS161 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -878,6 +889,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>DS161 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -905,6 +921,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>EC161 (3-0-2-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -932,6 +953,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>HS161 (3-0-0-0-3 | Full Sem)</t>
         </is>
       </c>
@@ -959,6 +985,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>MA161 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -986,6 +1017,11 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>MA162 (2-0-0-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -1020,6 +1056,11 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -1047,6 +1088,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>CS101 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1074,6 +1120,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>CS151 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1101,6 +1152,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>DE101 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1128,6 +1184,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>DS151 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1155,6 +1216,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>HS102 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1182,6 +1248,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>HS103 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1209,6 +1280,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>HS152 (3-0-0-0-3)</t>
         </is>
       </c>
@@ -1236,6 +1312,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>HS156 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1263,6 +1344,11 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>HS157 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1290,15 +1376,20 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
           <t>PH151 (2-0-0-0-2)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1475,10 +1566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>151.5</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1543,10 +1634,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1611,10 +1702,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1713,10 +1804,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1849,10 +1940,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1883,10 +1974,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1951,10 +2042,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1985,10 +2076,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2087,10 +2178,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2121,10 +2212,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2155,10 +2246,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2189,10 +2280,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2475,10 +2566,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2509,10 +2600,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2543,10 +2634,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2702,7 +2793,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -2716,7 +2807,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2788,7 +2879,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2860,7 +2951,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -2918,7 +3009,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -2932,7 +3023,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -2985,12 +3076,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3004,7 +3095,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3489,12 +3580,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3508,7 +3599,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3566,7 +3657,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -3580,7 +3671,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3849,12 +3940,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -3868,7 +3959,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4353,12 +4444,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -4372,7 +4463,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4588,7 +4679,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4660,7 +4751,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4713,12 +4804,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -4732,7 +4823,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5217,12 +5308,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -5236,7 +5327,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5289,12 +5380,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -5308,7 +5399,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5793,12 +5884,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -5812,7 +5903,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5865,12 +5956,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5884,7 +5975,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6369,12 +6460,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6388,7 +6479,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6446,7 +6537,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6464,7 +6555,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6522,7 +6613,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -6540,7 +6631,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6598,7 +6689,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -6616,7 +6707,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6692,7 +6783,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6768,7 +6859,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6844,7 +6935,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6920,7 +7011,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6968,15 +7059,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -6992,7 +7087,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7040,17 +7135,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -7068,7 +7163,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7116,17 +7211,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -7144,7 +7239,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8112,7 +8207,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8642,7 +8737,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -8660,7 +8755,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -8718,7 +8813,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -8736,7 +8831,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8794,7 +8889,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -8812,7 +8907,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -8888,7 +8983,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8964,7 +9059,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -9040,7 +9135,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9116,7 +9211,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -9164,15 +9259,19 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
@@ -9188,7 +9287,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -9236,17 +9335,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -9264,7 +9363,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9312,17 +9411,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -9340,7 +9439,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -9466,7 +9565,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -9480,7 +9579,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -9552,7 +9651,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9600,21 +9699,21 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9624,7 +9723,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9638,7 +9737,7 @@
         </is>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -9682,7 +9781,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -9696,7 +9795,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9749,7 +9848,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9768,7 +9867,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -10253,7 +10352,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -10272,7 +10371,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -10330,7 +10429,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -10344,7 +10443,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -10402,7 +10501,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10416,7 +10515,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -10613,7 +10712,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10632,7 +10731,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -11117,7 +11216,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11136,7 +11235,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -11352,7 +11451,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -11424,7 +11523,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -11477,7 +11576,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -11496,7 +11595,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -11981,7 +12080,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -12000,7 +12099,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12053,7 +12152,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12072,7 +12171,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12557,7 +12656,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12576,7 +12675,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -12629,7 +12728,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12648,7 +12747,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -13133,7 +13232,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13152,7 +13251,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13210,7 +13309,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -13228,7 +13327,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13286,7 +13385,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J148" t="b">
@@ -13304,7 +13403,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -13362,7 +13461,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J149" t="b">
@@ -13380,7 +13479,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13456,7 +13555,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -13532,7 +13631,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13608,7 +13707,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13684,7 +13783,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13732,15 +13831,19 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J154" t="b">
         <v>0</v>
       </c>
@@ -13756,7 +13859,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13804,17 +13907,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J155" t="b">
@@ -13832,7 +13935,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -13880,17 +13983,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J156" t="b">
@@ -13908,7 +14011,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -14876,7 +14979,7 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -15406,7 +15509,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J177" t="b">
@@ -15424,7 +15527,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -15482,7 +15585,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J178" t="b">
@@ -15500,7 +15603,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -15558,7 +15661,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J179" t="b">
@@ -15576,7 +15679,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -15652,7 +15755,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -15728,7 +15831,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -15804,7 +15907,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -15880,7 +15983,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -15928,15 +16031,19 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J184" t="b">
         <v>0</v>
       </c>
@@ -15952,7 +16059,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -16000,17 +16107,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J185" t="b">
@@ -16028,7 +16135,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -16076,17 +16183,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J186" t="b">
@@ -16104,7 +16211,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -16238,7 +16345,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C203</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -16255,7 +16362,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -16272,7 +16379,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -16289,7 +16396,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -16306,7 +16413,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -16323,7 +16430,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -16340,7 +16447,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -16357,7 +16464,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16481,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16498,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C304</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -16606,7 +16713,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -16639,7 +16746,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -17657,7 +17764,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -17690,7 +17797,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -20876,7 +20983,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20909,7 +21016,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -21927,7 +22034,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -21960,7 +22067,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -22797,7 +22904,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C305]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22824,7 +22931,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C305]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -22888,7 +22995,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -22920,7 +23027,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L208]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -22952,7 +23059,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C304]</t>
+          <t>HS161 [C102]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -22962,7 +23069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -22994,7 +23101,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -23096,27 +23203,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L406]</t>
+          <t>Course Name [C302]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L406]</t>
+          <t>L-T-P-S-C [C302]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L406]</t>
+          <t>Term Type [C302]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L406]</t>
+          <t>Lectures Hrs [C302]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L406]</t>
+          <t>Tutorials Hrs [C302]</t>
         </is>
       </c>
     </row>
@@ -23344,27 +23451,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [L406]</t>
+          <t>Course [C302]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [L406]</t>
+          <t>Course Code [C302]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L406]</t>
+          <t>Lecture Slot - Classroom [C302]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L406]</t>
+          <t>Tutorial Slot - Classroom [C302]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L406]</t>
+          <t>L-T-P-S-C [C302]</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23891,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -23811,12 +23918,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -23875,7 +23982,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -23907,7 +24014,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -23939,7 +24046,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C305]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -23949,7 +24056,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -23981,7 +24088,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -24083,27 +24190,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L408]</t>
+          <t>Course Name [C303]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L408]</t>
+          <t>L-T-P-S-C [C303]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L408]</t>
+          <t>Term Type [C303]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L407]</t>
+          <t>Lectures Hrs [C303]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L407]</t>
+          <t>Tutorials Hrs [C303]</t>
         </is>
       </c>
     </row>
@@ -24331,27 +24438,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [L408]</t>
+          <t>Course [C303]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [L408]</t>
+          <t>Course Code [C303]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L408]</t>
+          <t>Lecture Slot - Classroom [C303]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L408]</t>
+          <t>Tutorial Slot - Classroom [C303]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L408]</t>
+          <t>L-T-P-S-C [C303]</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Chimayananda A</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Sandesh P</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P187"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2807,7 +2807,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2879,7 +2879,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2951,7 +2951,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3023,7 +3023,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3071,12 +3071,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3095,7 +3095,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3599,7 +3599,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -3671,7 +3671,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -3743,7 +3743,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3796,14 +3796,10 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -3815,7 +3811,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3868,14 +3864,10 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -3887,7 +3879,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3935,12 +3927,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3959,7 +3951,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4089,7 +4081,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -4103,7 +4095,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4305,7 +4297,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -4319,7 +4311,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4377,7 +4369,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -4391,7 +4383,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4439,12 +4431,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4463,7 +4455,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4516,14 +4508,10 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -4535,7 +4523,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4588,14 +4576,10 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -4607,7 +4591,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4679,7 +4663,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4751,7 +4735,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4799,12 +4783,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4823,7 +4807,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5303,12 +5287,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5327,7 +5311,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5375,12 +5359,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -5399,7 +5383,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5879,12 +5863,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -5903,7 +5887,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5951,12 +5935,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5975,7 +5959,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6455,12 +6439,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6479,7 +6463,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6765,7 +6749,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -6783,7 +6767,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6859,7 +6843,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6935,7 +6919,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6993,7 +6977,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -7011,7 +6995,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7069,7 +7053,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -7087,7 +7071,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7163,7 +7147,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7239,7 +7223,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7287,21 +7271,21 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -7311,7 +7295,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7321,7 +7305,7 @@
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7355,21 +7339,21 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -7379,7 +7363,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7389,7 +7373,7 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7661,7 +7645,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -7679,7 +7663,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -7755,7 +7739,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7831,7 +7815,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7889,7 +7873,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -7907,7 +7891,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7965,7 +7949,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -7983,7 +7967,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8059,7 +8043,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8135,7 +8119,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8207,7 +8191,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8251,21 +8235,21 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -8275,7 +8259,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -8285,7 +8269,7 @@
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -8343,7 +8327,7 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -8591,21 +8575,21 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -8615,7 +8599,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8625,7 +8609,7 @@
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -9487,21 +9471,21 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9511,7 +9495,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -9521,7 +9505,7 @@
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -9550,7 +9534,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -9560,12 +9544,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -9579,12 +9563,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -9622,24 +9606,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="b">
         <v>0</v>
       </c>
@@ -9651,17 +9631,17 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P96" t="b">
@@ -9689,27 +9669,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -9723,17 +9703,17 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P97" t="b">
@@ -9761,12 +9741,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9776,12 +9756,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -9795,12 +9775,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -9833,12 +9813,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -9872,7 +9852,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -9905,12 +9885,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9944,7 +9924,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9977,12 +9957,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -10016,7 +9996,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -10049,12 +10029,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -10088,7 +10068,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -10121,12 +10101,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -10160,7 +10140,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -10193,12 +10173,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -10232,7 +10212,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -10265,12 +10245,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -10280,7 +10260,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -10299,12 +10279,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -10332,34 +10312,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="b">
         <v>0</v>
       </c>
@@ -10371,12 +10347,12 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -10409,7 +10385,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10443,7 +10419,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -10481,27 +10457,27 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10515,17 +10491,17 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P108" t="b">
@@ -10553,27 +10529,27 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -10587,17 +10563,17 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P109" t="b">
@@ -10630,7 +10606,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -10664,7 +10640,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -10712,7 +10688,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10731,7 +10707,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -10861,7 +10837,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -10875,7 +10851,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -11077,7 +11053,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J116" t="b">
@@ -11091,7 +11067,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -11149,7 +11125,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J117" t="b">
@@ -11163,7 +11139,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -11216,7 +11192,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11235,7 +11211,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -11278,7 +11254,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -11312,7 +11288,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -11345,27 +11321,27 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -11379,12 +11355,12 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -11417,27 +11393,27 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J121" t="b">
@@ -11451,17 +11427,17 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P121" t="b">
@@ -11489,27 +11465,27 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J122" t="b">
@@ -11523,17 +11499,17 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P122" t="b">
@@ -11561,12 +11537,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -11600,7 +11576,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -11633,7 +11609,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -11705,7 +11681,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -11777,7 +11753,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -11849,12 +11825,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -11864,7 +11840,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -11883,12 +11859,12 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -11916,32 +11892,32 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J128" t="b">
@@ -11955,12 +11931,12 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -11988,32 +11964,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J129" t="b">
@@ -12027,17 +12003,17 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P129" t="b">
@@ -12060,32 +12036,32 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -12099,17 +12075,17 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P130" t="b">
@@ -12152,7 +12128,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12171,7 +12147,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12656,7 +12632,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12675,7 +12651,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -12728,7 +12704,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12747,7 +12723,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -13232,7 +13208,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13251,7 +13227,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13537,7 +13513,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J150" t="b">
@@ -13555,7 +13531,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -13631,7 +13607,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13707,7 +13683,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13765,7 +13741,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J153" t="b">
@@ -13783,7 +13759,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13841,7 +13817,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J154" t="b">
@@ -13859,7 +13835,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13935,7 +13911,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -14011,7 +13987,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -14059,21 +14035,21 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14083,7 +14059,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -14093,7 +14069,7 @@
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -14127,21 +14103,21 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14151,7 +14127,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -14161,7 +14137,7 @@
       </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -14433,7 +14409,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J162" t="b">
@@ -14451,7 +14427,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -14527,7 +14503,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -14603,7 +14579,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -14661,7 +14637,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J165" t="b">
@@ -14679,7 +14655,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -14737,7 +14713,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -14755,7 +14731,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -14831,7 +14807,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -14907,7 +14883,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -14945,27 +14921,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -14979,12 +14955,12 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
@@ -15013,31 +14989,31 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -15047,17 +15023,17 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -15076,17 +15052,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -15115,12 +15091,12 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
@@ -15144,17 +15120,17 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -15164,7 +15140,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -15183,12 +15159,12 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
@@ -15217,27 +15193,27 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J173" t="b">
@@ -15251,12 +15227,12 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
@@ -15285,7 +15261,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -15319,7 +15295,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -15353,31 +15329,31 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -15387,17 +15363,17 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -15416,17 +15392,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -15436,7 +15412,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -15455,12 +15431,12 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O176" t="inlineStr"/>
@@ -15489,12 +15465,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -15520,11 +15496,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
           <t>C101</t>
@@ -15532,14 +15504,10 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
       <c r="P177" t="b">
         <v>0</v>
       </c>
@@ -15570,7 +15538,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -15603,12 +15571,12 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -15646,7 +15614,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -15679,12 +15647,12 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -15722,7 +15690,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -15755,12 +15723,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -15798,7 +15766,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -15813,7 +15781,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J181" t="b">
@@ -15831,12 +15799,12 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -15874,7 +15842,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -15907,12 +15875,12 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -15950,7 +15918,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -15983,12 +15951,12 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -16026,7 +15994,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -16041,7 +16009,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J184" t="b">
@@ -16059,12 +16027,12 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -16102,7 +16070,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -16117,7 +16085,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J185" t="b">
@@ -16135,12 +16103,12 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -16178,7 +16146,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -16211,12 +16179,12 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -16249,51 +16217,195 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
           <t>ELECTIVE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J187" t="b">
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
         <v>1</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J189" t="b">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="b">
-        <v>1</v>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16345,7 +16457,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101, L406, L408</t>
         </is>
       </c>
     </row>
@@ -16396,7 +16508,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16525,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16542,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C204, C205</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16559,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C205, C302</t>
         </is>
       </c>
     </row>
@@ -16464,7 +16576,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C302, C303</t>
         </is>
       </c>
     </row>
@@ -16481,7 +16593,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -16498,7 +16610,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
@@ -16619,7 +16731,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
@@ -16713,7 +16825,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -16746,7 +16858,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -16779,7 +16891,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -17538,7 +17650,7 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -17668,14 +17780,14 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C203]</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C203]</t>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
+        </is>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -17701,9 +17813,9 @@
           <t>EC161 [C004]</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C203]</t>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -17764,12 +17876,12 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -17797,12 +17909,12 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -17828,14 +17940,14 @@
           <t>EC161 [C004]</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C203]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -17866,9 +17978,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -18584,12 +18696,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -18711,7 +18823,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -18739,7 +18851,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -19640,7 +19752,7 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -19762,7 +19874,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -19790,17 +19902,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -19856,17 +19968,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -19889,7 +20001,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -19922,12 +20034,12 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -20686,12 +20798,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -20813,7 +20925,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -20841,17 +20953,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -20912,12 +21024,12 @@
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -20973,17 +21085,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -21016,7 +21128,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -21742,7 +21854,7 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -21778,7 +21890,7 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
@@ -21862,9 +21974,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C104]</t>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -21872,9 +21984,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E3" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -21890,19 +22002,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C104]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C104]</t>
-        </is>
-      </c>
-      <c r="D4" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C004]</t>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C101]</t>
+        </is>
+      </c>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -21956,24 +22068,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C004]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C004]</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -21989,24 +22101,24 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -22022,19 +22134,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C104]</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C004]</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C101]</t>
+        </is>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -22065,9 +22177,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -22788,12 +22900,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -22904,7 +23016,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C305]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22931,17 +23043,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C304]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -22995,17 +23107,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -23027,7 +23139,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -23059,17 +23171,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -23101,7 +23213,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -23203,27 +23315,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C302]</t>
+          <t>Course Name [C002]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C302]</t>
+          <t>L-T-P-S-C [C002]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C302]</t>
+          <t>Term Type [C002]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C302]</t>
+          <t>Lectures Hrs [C002]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C302]</t>
+          <t>Tutorials Hrs [C002]</t>
         </is>
       </c>
     </row>
@@ -23272,7 +23384,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C205]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -23368,7 +23480,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C205]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -23400,7 +23512,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C205]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -23451,27 +23563,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C302]</t>
+          <t>Course [C002]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C302]</t>
+          <t>Course Code [C002]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C302]</t>
+          <t>Lecture Slot - Classroom [C002]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C302]</t>
+          <t>Tutorial Slot - Classroom [C002]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C302]</t>
+          <t>L-T-P-S-C [C002]</t>
         </is>
       </c>
     </row>
@@ -23483,27 +23595,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23515,27 +23627,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23547,27 +23659,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23579,27 +23691,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23611,27 +23723,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23643,27 +23755,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23675,27 +23787,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23707,27 +23819,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23739,27 +23851,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23771,27 +23883,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23891,7 +24003,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>HS161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -23901,7 +24013,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -23918,17 +24030,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>HS161 [L403]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -23982,22 +24094,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -24014,22 +24126,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -24046,17 +24158,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -24088,7 +24200,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -24190,27 +24302,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C303]</t>
+          <t>Course Name [L402]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C303]</t>
+          <t>L-T-P-S-C [L402]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C303]</t>
+          <t>Term Type [L402]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C303]</t>
+          <t>Lectures Hrs [L402]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C303]</t>
+          <t>Tutorials Hrs [L402]</t>
         </is>
       </c>
     </row>
@@ -24259,7 +24371,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C303]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -24355,7 +24467,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C303]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -24387,7 +24499,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C303]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -24438,27 +24550,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C303]</t>
+          <t>Course [L402]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C303]</t>
+          <t>Course Code [L402]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C303]</t>
+          <t>Lecture Slot - Classroom [L402]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C303]</t>
+          <t>Tutorial Slot - Classroom [L402]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C303]</t>
+          <t>L-T-P-S-C [L402]</t>
         </is>
       </c>
     </row>
@@ -24470,27 +24582,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24502,27 +24614,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24534,27 +24646,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24566,27 +24678,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24598,27 +24710,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24630,27 +24742,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24662,27 +24774,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24694,27 +24806,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24726,27 +24838,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24758,27 +24870,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>46.5</v>
       </c>
       <c r="E24" t="n">
-        <v>8.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,17 +2783,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -2807,7 +2807,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3023,7 +3023,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3095,7 +3095,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3599,7 +3599,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3671,7 +3671,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -3743,7 +3743,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3796,10 +3796,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -3811,12 +3815,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3854,7 +3858,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3864,10 +3868,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -3879,12 +3887,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3927,17 +3935,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -3951,7 +3959,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4009,7 +4017,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4023,7 +4031,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4081,7 +4089,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -4095,7 +4103,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4297,7 +4305,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -4311,7 +4319,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4369,7 +4377,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -4383,7 +4391,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4431,17 +4439,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -4455,7 +4463,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4508,10 +4516,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -4523,7 +4535,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4561,7 +4573,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4576,10 +4588,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -4591,7 +4607,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4629,27 +4645,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -4663,17 +4679,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -4701,27 +4717,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -4735,17 +4751,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -4773,22 +4789,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4807,12 +4823,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4845,12 +4861,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4884,7 +4900,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4917,12 +4933,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4956,7 +4972,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4989,12 +5005,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5028,7 +5044,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5061,12 +5077,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5100,7 +5116,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5133,12 +5149,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5153,7 +5169,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -5167,12 +5183,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -5200,32 +5216,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -5239,17 +5255,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -5272,32 +5288,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -5311,17 +5327,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -5359,17 +5375,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -5383,7 +5399,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5863,17 +5879,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -5887,7 +5903,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5935,17 +5951,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5959,7 +5975,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6439,17 +6455,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6463,7 +6479,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6749,7 +6765,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -6767,7 +6783,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6843,7 +6859,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6919,7 +6935,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6977,7 +6993,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -6995,7 +7011,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7053,7 +7069,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -7071,7 +7087,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7147,7 +7163,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7223,7 +7239,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7645,7 +7661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -7663,7 +7679,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -7739,7 +7755,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7815,7 +7831,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7873,7 +7889,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -7891,7 +7907,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7949,7 +7965,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -7967,7 +7983,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8043,7 +8059,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8119,7 +8135,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8157,27 +8173,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -8191,12 +8207,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -8225,27 +8241,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -8259,12 +8275,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -8288,17 +8304,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -8308,12 +8324,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -8327,12 +8343,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -8361,12 +8377,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -8395,12 +8411,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -8429,27 +8445,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -8463,12 +8479,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -8497,27 +8513,27 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -8531,12 +8547,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -8560,17 +8576,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -8580,12 +8596,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -8599,12 +8615,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -8633,12 +8649,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -8664,18 +8680,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -8706,7 +8730,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -8739,12 +8763,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -8782,7 +8806,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -8815,12 +8839,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -8858,7 +8882,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -8891,12 +8915,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -8934,7 +8958,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -8949,7 +8973,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -8967,12 +8991,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9010,7 +9034,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -9043,12 +9067,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9086,7 +9110,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -9119,12 +9143,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -9162,7 +9186,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -9177,7 +9201,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -9195,12 +9219,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -9238,7 +9262,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -9253,7 +9277,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -9271,12 +9295,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -9314,7 +9338,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -9347,12 +9371,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -9385,12 +9409,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -9400,7 +9424,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -9416,26 +9440,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
         <v>0</v>
       </c>
@@ -9451,22 +9467,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -9476,7 +9492,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -9489,21 +9505,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P94" t="b">
         <v>0</v>
       </c>
@@ -9529,27 +9549,27 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -9563,17 +9583,17 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P95" t="b">
@@ -9601,25 +9621,29 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
@@ -9631,17 +9655,17 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P96" t="b">
@@ -9674,22 +9698,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -9703,12 +9727,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -9756,12 +9780,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -9775,7 +9799,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -10260,12 +10284,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -10279,7 +10303,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -10322,20 +10346,24 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
@@ -10347,12 +10375,12 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -10390,17 +10418,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10419,12 +10447,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -10462,22 +10490,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10491,17 +10519,17 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P108" t="b">
@@ -10529,27 +10557,27 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -10563,17 +10591,17 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P109" t="b">
@@ -10601,22 +10629,22 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10635,12 +10663,12 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -10673,12 +10701,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -10688,7 +10716,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10707,12 +10735,12 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -10745,12 +10773,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -10784,7 +10812,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -10817,12 +10845,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -10837,7 +10865,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -10851,12 +10879,12 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -10889,12 +10917,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -10928,7 +10956,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -10961,12 +10989,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -11000,7 +11028,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -11033,12 +11061,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -11067,12 +11095,12 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -11100,17 +11128,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -11144,7 +11172,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -11172,32 +11200,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -11211,12 +11239,12 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -11249,22 +11277,22 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -11283,12 +11311,12 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -11321,12 +11349,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -11336,7 +11364,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -11355,12 +11383,12 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -11393,12 +11421,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -11432,7 +11460,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -11465,12 +11493,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -11504,7 +11532,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -11537,12 +11565,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -11576,7 +11604,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -11609,12 +11637,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -11648,7 +11676,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -11681,12 +11709,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -11720,7 +11748,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -11753,12 +11781,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -11773,7 +11801,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J126" t="b">
@@ -11787,12 +11815,12 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -11820,32 +11848,32 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -11859,12 +11887,12 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -11897,27 +11925,27 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J128" t="b">
@@ -11931,17 +11959,17 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P128" t="b">
@@ -11969,7 +11997,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12041,27 +12069,27 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -12075,17 +12103,17 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P130" t="b">
@@ -12113,12 +12141,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -12128,7 +12156,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12147,12 +12175,12 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -12185,12 +12213,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -12224,7 +12252,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -12257,12 +12285,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -12296,7 +12324,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -12329,7 +12357,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -12401,12 +12429,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -12440,7 +12468,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -12473,7 +12501,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -12545,12 +12573,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -12565,7 +12593,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J137" t="b">
@@ -12579,12 +12607,12 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -12612,17 +12640,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -12632,12 +12660,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J138" t="b">
@@ -12651,12 +12679,12 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -12689,12 +12717,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -12704,7 +12732,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12723,12 +12751,12 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -12761,7 +12789,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -12833,7 +12861,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -12905,7 +12933,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -12977,7 +13005,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13049,7 +13077,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13121,12 +13149,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -13141,7 +13169,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -13155,12 +13183,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -13188,17 +13216,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -13208,12 +13236,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J146" t="b">
@@ -13221,18 +13249,22 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -13270,7 +13302,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -13303,12 +13335,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -13346,7 +13378,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -13379,12 +13411,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13422,7 +13454,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -13455,12 +13487,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -13498,7 +13530,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -13536,7 +13568,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -13574,7 +13606,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -13612,7 +13644,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -13650,7 +13682,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -13688,7 +13720,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -13726,7 +13758,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -13764,7 +13796,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -13802,7 +13834,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -13840,7 +13872,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -13878,7 +13910,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -13916,7 +13948,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -13949,12 +13981,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -13964,7 +13996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -13980,26 +14012,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr"/>
       <c r="P156" t="b">
         <v>0</v>
       </c>
@@ -14020,32 +14044,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J157" t="b">
@@ -14059,12 +14083,12 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
@@ -14409,7 +14433,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J162" t="b">
@@ -14427,7 +14451,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -14503,7 +14527,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -14579,7 +14603,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -14637,7 +14661,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J165" t="b">
@@ -14655,7 +14679,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -14713,7 +14737,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -14731,7 +14755,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -14807,7 +14831,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -14883,7 +14907,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -14921,27 +14945,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -14955,12 +14979,12 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
@@ -14989,27 +15013,27 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -15023,12 +15047,12 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
@@ -15057,12 +15081,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -15072,7 +15096,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -15091,12 +15115,12 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
@@ -15120,32 +15144,32 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J172" t="b">
@@ -15159,12 +15183,12 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
@@ -15193,27 +15217,27 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J173" t="b">
@@ -15227,12 +15251,12 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
@@ -15261,27 +15285,27 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J174" t="b">
@@ -15295,12 +15319,12 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O174" t="inlineStr"/>
@@ -15324,32 +15348,32 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J175" t="b">
@@ -15363,12 +15387,12 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
@@ -15392,17 +15416,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -15412,12 +15436,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -15428,18 +15452,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P176" t="b">
         <v>0</v>
       </c>
@@ -15465,12 +15497,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -15496,18 +15528,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P177" t="b">
         <v>0</v>
       </c>
@@ -15538,7 +15578,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -15571,12 +15611,12 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -15614,7 +15654,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -15647,12 +15687,12 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -15690,7 +15730,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -15705,7 +15745,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J180" t="b">
@@ -15723,12 +15763,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -15766,7 +15806,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -15781,7 +15821,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J181" t="b">
@@ -15799,12 +15839,12 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -15842,7 +15882,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -15875,12 +15915,12 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -15918,7 +15958,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -15933,7 +15973,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J183" t="b">
@@ -15951,12 +15991,12 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -15994,7 +16034,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -16027,12 +16067,12 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -16070,7 +16110,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -16085,7 +16125,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J185" t="b">
@@ -16103,12 +16143,12 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -16141,12 +16181,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -16156,7 +16196,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -16172,239 +16212,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
       <c r="P186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J187" t="b">
-        <v>0</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J188" t="b">
-        <v>0</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>1</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J189" t="b">
-        <v>0</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16508,7 +16328,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -16525,7 +16345,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -16542,7 +16362,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -16559,7 +16379,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16396,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16413,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C303, C304</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16430,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -16736,7 +16556,7 @@
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -16764,7 +16584,7 @@
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -17650,7 +17470,7 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -17780,14 +17600,14 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C202]</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C101]</t>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C102]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -17813,14 +17633,14 @@
           <t>EC161 [C004]</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C101]</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -17879,9 +17699,9 @@
           <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -17912,9 +17732,9 @@
           <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -17940,14 +17760,14 @@
           <t>EC161 [C004]</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C202]</t>
-        </is>
-      </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C102]</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -17978,9 +17798,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -18696,12 +18516,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -18856,7 +18676,7 @@
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
@@ -18983,7 +18803,7 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -19752,7 +19572,7 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -19874,7 +19694,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -19882,9 +19702,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -19902,17 +19722,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C203]</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
+          <t>CS161 [C104]</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -19971,14 +19791,14 @@
           <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -20032,19 +19852,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C203]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20798,12 +20618,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -20925,7 +20745,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -20953,17 +20773,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C204]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -21022,19 +20842,19 @@
           <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -21065,9 +20885,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -21085,17 +20905,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C204]</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
+          <t>HS161 [C102]</t>
+        </is>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -21126,9 +20946,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -21854,7 +21674,7 @@
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -21890,7 +21710,7 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
@@ -21974,9 +21794,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C202]</t>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -22002,19 +21822,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C202]</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C101]</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C203]</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -22068,24 +21888,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C102]</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -22101,24 +21921,24 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -22134,14 +21954,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C101]</t>
-        </is>
-      </c>
-      <c r="C8" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -22149,9 +21969,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -22182,9 +22002,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -22900,12 +22720,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -23016,7 +22836,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C305]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -23043,17 +22863,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C002]</t>
+          <t>CS161 [C303]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C304]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -23112,17 +22932,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -23154,7 +22974,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -23171,17 +22991,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C303]</t>
+          <t>HS161 [C102]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -23213,7 +23033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -23315,27 +23135,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C002]</t>
+          <t>Course Name [C305]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C002]</t>
+          <t>L-T-P-S-C [C305]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C002]</t>
+          <t>Term Type [C305]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C002]</t>
+          <t>Lectures Hrs [C305]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C002]</t>
+          <t>Tutorials Hrs [C305]</t>
         </is>
       </c>
     </row>
@@ -23352,7 +23172,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C302]</t>
+          <t>3-0-2-0-4 [C205]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -23384,7 +23204,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C205]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -23480,7 +23300,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C205]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -23512,7 +23332,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C205]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -23563,27 +23383,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C002]</t>
+          <t>Course [C305]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C002]</t>
+          <t>Course Code [C305]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C002]</t>
+          <t>Lecture Slot - Classroom [C305]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C002]</t>
+          <t>Tutorial Slot - Classroom [C305]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C002]</t>
+          <t>L-T-P-S-C [C305]</t>
         </is>
       </c>
     </row>
@@ -24003,7 +23823,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C001]</t>
+          <t>CS161 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24013,7 +23833,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -24030,17 +23850,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS161 [L403]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>HS161 [C302]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -24094,22 +23914,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>HS161 [C102]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>MA162 [C003]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -24126,14 +23946,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
@@ -24141,7 +23961,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -24158,12 +23978,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -24173,7 +23993,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -24205,7 +24025,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -24302,27 +24122,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L402]</t>
+          <t>Course Name [C102]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L402]</t>
+          <t>L-T-P-S-C [C102]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L402]</t>
+          <t>Term Type [C102]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L402]</t>
+          <t>Lectures Hrs [C102]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L402]</t>
+          <t>Tutorials Hrs [C102]</t>
         </is>
       </c>
     </row>
@@ -24339,7 +24159,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C303]</t>
+          <t>3-0-2-0-4 [C302]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -24371,7 +24191,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C303]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -24467,7 +24287,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C303]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -24499,7 +24319,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C303]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -24550,27 +24370,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [L402]</t>
+          <t>Course [C102]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [L402]</t>
+          <t>Course Code [C102]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L402]</t>
+          <t>Lecture Slot - Classroom [C102]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L402]</t>
+          <t>Tutorial Slot - Classroom [C102]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L402]</t>
+          <t>L-T-P-S-C [C102]</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>22.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46.5</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>9.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46.5</v>
+        <v>40.5</v>
       </c>
       <c r="E24" t="n">
-        <v>9.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2783,19 +2783,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -2807,7 +2803,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3009,7 +3005,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3023,7 +3019,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3071,17 +3067,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3095,7 +3091,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3575,17 +3571,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3599,7 +3595,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3657,7 +3653,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -3671,7 +3667,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3743,7 +3739,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3791,17 +3787,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -3815,7 +3811,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3863,17 +3859,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3887,7 +3883,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3935,17 +3931,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -3959,7 +3955,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4103,7 +4099,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4319,7 +4315,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4391,7 +4387,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4439,17 +4435,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -4463,7 +4459,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4511,17 +4507,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -4535,7 +4531,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4583,17 +4579,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -4607,7 +4603,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4655,17 +4651,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -4679,7 +4675,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4737,7 +4733,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -4751,7 +4747,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4809,7 +4805,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -4823,7 +4819,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4953,7 +4949,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -4967,7 +4963,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5025,7 +5021,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5039,7 +5035,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5159,17 +5155,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -5183,7 +5179,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5255,7 +5251,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5327,7 +5323,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5375,17 +5371,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -5399,7 +5395,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5457,7 +5453,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -5471,7 +5467,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5601,7 +5597,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -5615,7 +5611,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5673,7 +5669,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -5687,7 +5683,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5879,17 +5875,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -5903,7 +5899,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5951,17 +5947,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5975,7 +5971,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6033,7 +6029,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6047,7 +6043,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6105,7 +6101,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -6119,7 +6115,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6177,7 +6173,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -6191,7 +6187,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6249,7 +6245,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -6263,7 +6259,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6321,7 +6317,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -6335,7 +6331,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6393,7 +6389,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6407,7 +6403,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6455,17 +6451,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6479,7 +6475,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6555,7 +6551,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6613,7 +6609,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -6631,7 +6627,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6689,7 +6685,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -6707,7 +6703,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6765,7 +6761,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -6783,7 +6779,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6841,7 +6837,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -6859,7 +6855,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6935,7 +6931,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -7011,7 +7007,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7059,19 +7055,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -7087,7 +7079,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7135,17 +7127,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -7163,7 +7155,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7211,17 +7203,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -7239,7 +7231,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8059,7 +8051,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8135,7 +8127,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8183,17 +8175,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -8207,7 +8199,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8275,7 +8267,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -8479,7 +8471,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -8615,7 +8607,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8669,7 +8661,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -8687,7 +8679,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -8745,7 +8737,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -8763,7 +8755,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -8821,7 +8813,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -8839,7 +8831,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8915,7 +8907,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -8991,7 +8983,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9067,7 +9059,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -9143,7 +9135,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9191,19 +9183,15 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="b">
         <v>0</v>
       </c>
@@ -9219,7 +9207,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -9267,17 +9255,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -9295,7 +9283,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -9343,17 +9331,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -9371,7 +9359,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9487,17 +9475,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -9511,7 +9499,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -9703,17 +9691,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -9727,7 +9715,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9780,12 +9768,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -9799,7 +9787,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -10284,12 +10272,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -10303,7 +10291,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -10351,19 +10339,15 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="b">
         <v>0</v>
       </c>
@@ -10375,7 +10359,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -10423,17 +10407,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -10447,7 +10431,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -10505,7 +10489,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10519,7 +10503,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -10572,12 +10556,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -10591,7 +10575,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -10735,7 +10719,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -10951,7 +10935,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -11023,7 +11007,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11076,12 +11060,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J116" t="b">
@@ -11095,7 +11079,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -11153,7 +11137,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J117" t="b">
@@ -11167,7 +11151,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -11215,17 +11199,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -11239,7 +11223,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -11292,12 +11276,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -11311,7 +11295,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -11796,12 +11780,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J126" t="b">
@@ -11815,7 +11799,7 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -11863,17 +11847,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -11887,7 +11871,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -12084,12 +12068,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -12103,7 +12087,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12588,12 +12572,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J137" t="b">
@@ -12607,7 +12591,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -12660,12 +12644,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J138" t="b">
@@ -12679,7 +12663,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -13164,12 +13148,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -13183,7 +13167,7 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -13259,7 +13243,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13317,7 +13301,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -13335,7 +13319,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13393,7 +13377,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J148" t="b">
@@ -13411,7 +13395,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -13469,7 +13453,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J149" t="b">
@@ -13487,7 +13471,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13545,7 +13529,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J150" t="b">
@@ -13563,7 +13547,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -13639,7 +13623,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13715,7 +13699,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13763,19 +13747,15 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="b">
         <v>0</v>
       </c>
@@ -13791,7 +13771,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13839,17 +13819,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J154" t="b">
@@ -13867,7 +13847,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13915,17 +13895,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J155" t="b">
@@ -13943,7 +13923,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -14059,17 +14039,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J157" t="b">
@@ -14083,7 +14063,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -14831,7 +14811,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -14907,7 +14887,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -14955,17 +14935,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -14979,7 +14959,7 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -15023,17 +15003,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -15047,7 +15027,7 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -15387,7 +15367,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -15441,7 +15421,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -15459,7 +15439,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -15517,7 +15497,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J177" t="b">
@@ -15535,7 +15515,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -15593,7 +15573,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J178" t="b">
@@ -15611,7 +15591,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -15687,7 +15667,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -15763,7 +15743,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -15839,7 +15819,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -15915,7 +15895,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -15963,19 +15943,15 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="b">
         <v>0</v>
       </c>
@@ -15991,7 +15967,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -16039,17 +16015,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J184" t="b">
@@ -16067,7 +16043,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -16115,17 +16091,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J185" t="b">
@@ -16143,7 +16119,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -16277,7 +16253,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L406, L408</t>
+          <t>C101, C202, C203, L406, L408</t>
         </is>
       </c>
     </row>
@@ -16294,7 +16270,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C102, C203, C204</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16287,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C104, C204, C205</t>
         </is>
       </c>
     </row>
@@ -16328,7 +16304,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C205, C302</t>
         </is>
       </c>
     </row>
@@ -16345,7 +16321,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C203, C302, C303</t>
         </is>
       </c>
     </row>
@@ -16362,7 +16338,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C204, C303, C304</t>
         </is>
       </c>
     </row>
@@ -16379,7 +16355,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C205, C304, C305</t>
         </is>
       </c>
     </row>
@@ -16396,7 +16372,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001, C302</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16389,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002, C304</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16406,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003, C305</t>
         </is>
       </c>
     </row>
@@ -16541,7 +16517,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -16556,7 +16532,7 @@
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -16569,22 +16545,22 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -16635,17 +16611,17 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -16678,7 +16654,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -16701,12 +16677,12 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -17592,7 +17568,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -17602,7 +17578,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -17620,17 +17596,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -17640,7 +17616,7 @@
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -17686,17 +17662,17 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -17729,7 +17705,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [C003]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -17752,12 +17728,12 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -17767,7 +17743,7 @@
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -18676,12 +18652,12 @@
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -18737,17 +18713,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -18770,7 +18746,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -18803,12 +18779,12 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -19704,7 +19680,7 @@
       </c>
       <c r="E3" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -19727,12 +19703,12 @@
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -19788,12 +19764,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -19821,7 +19797,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -19854,7 +19830,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -19864,7 +19840,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20783,7 +20759,7 @@
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -20839,12 +20815,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -20854,7 +20830,7 @@
       </c>
       <c r="E6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -20887,7 +20863,7 @@
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -20905,17 +20881,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="C8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -21796,7 +21772,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -21806,7 +21782,7 @@
       </c>
       <c r="E3" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -21824,12 +21800,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
@@ -21895,12 +21871,12 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="D6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -21956,7 +21932,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -22836,7 +22812,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22863,17 +22839,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C303]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C302]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -22932,7 +22908,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -22942,7 +22918,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -22974,7 +22950,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -22991,17 +22967,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -23135,27 +23111,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C305]</t>
+          <t>Course Name [C004]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C305]</t>
+          <t>L-T-P-S-C [C004]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C305]</t>
+          <t>Term Type [C004]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C305]</t>
+          <t>Lectures Hrs [C004]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C305]</t>
+          <t>Tutorials Hrs [C004]</t>
         </is>
       </c>
     </row>
@@ -23177,17 +23153,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C302]</t>
+          <t>Full Sem [C205]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C302]</t>
+          <t>3/3 [C205]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23204,12 +23180,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C202]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C302]</t>
+          <t>Pre-Mid Only [C205]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -23219,7 +23195,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23246,12 +23222,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C302]</t>
+          <t>3/3 [C205]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23273,17 +23249,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C302]</t>
+          <t>Full Sem [C205]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C302]</t>
+          <t>3/3 [C205]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23300,12 +23276,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C202]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C302]</t>
+          <t>Pre-Mid Only [C205]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -23315,7 +23291,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23332,7 +23308,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C202]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -23347,7 +23323,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23383,27 +23359,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C305]</t>
+          <t>Course [C004]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C305]</t>
+          <t>Course Code [C004]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C305]</t>
+          <t>Lecture Slot - Classroom [C004]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C305]</t>
+          <t>Tutorial Slot - Classroom [C003]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C305]</t>
+          <t>L-T-P-S-C [C004]</t>
         </is>
       </c>
     </row>
@@ -23823,7 +23799,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C303]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -23833,7 +23809,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -23850,17 +23826,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS161 [C302]</t>
+          <t>HS161 [C304]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -23919,12 +23895,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HS161 [C102]</t>
+          <t>HS161 [C205]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -23978,7 +23954,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -24122,27 +24098,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C102]</t>
+          <t>Course Name [L403]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C102]</t>
+          <t>L-T-P-S-C [L403]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C102]</t>
+          <t>Term Type [L403]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C102]</t>
+          <t>Lectures Hrs [L404]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C102]</t>
+          <t>Tutorials Hrs [L404]</t>
         </is>
       </c>
     </row>
@@ -24191,7 +24167,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C303]</t>
+          <t>2-0-0-0-2 [C203]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -24287,7 +24263,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C303]</t>
+          <t>2-0-0-0-2 [C203]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -24319,7 +24295,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C303]</t>
+          <t>2-0-0-0-2 [C203]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -24370,27 +24346,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C102]</t>
+          <t>Course [L403]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C102]</t>
+          <t>Course Code [L403]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C102]</t>
+          <t>Lecture Slot - Classroom [L403]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C102]</t>
+          <t>Tutorial Slot - Classroom [L403]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C102]</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="E17" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40.5</v>
+        <v>10.5</v>
       </c>
       <c r="E24" t="n">
-        <v>8.1</v>
+        <v>2.1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P186"/>
+  <dimension ref="A1:P187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,15 +2783,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -2803,7 +2807,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3067,17 +3071,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3091,7 +3095,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3149,7 +3153,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -3163,7 +3167,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -3221,7 +3225,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -3235,7 +3239,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3293,7 +3297,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -3307,7 +3311,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3365,7 +3369,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -3379,7 +3383,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3437,7 +3441,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -3451,7 +3455,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3571,17 +3575,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3595,7 +3599,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3667,7 +3671,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3725,7 +3729,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -3739,7 +3743,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3782,22 +3786,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -3811,12 +3815,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3854,22 +3858,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3883,12 +3887,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3931,17 +3935,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -3955,7 +3959,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4013,7 +4017,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4027,7 +4031,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4085,7 +4089,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -4099,7 +4103,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4229,7 +4233,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -4243,7 +4247,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4301,7 +4305,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -4315,7 +4319,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4387,7 +4391,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4435,17 +4439,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -4459,7 +4463,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4507,17 +4511,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -4531,7 +4535,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4569,7 +4573,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4579,17 +4583,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -4603,7 +4607,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4641,27 +4645,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -4675,17 +4679,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -4713,27 +4717,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -4747,17 +4751,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -4785,12 +4789,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4824,7 +4828,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4857,12 +4861,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4891,12 +4895,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4929,12 +4933,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4949,7 +4953,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -4963,12 +4967,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5001,12 +5005,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5035,12 +5039,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5073,12 +5077,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5112,7 +5116,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5145,27 +5149,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -5179,12 +5183,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -5212,32 +5216,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -5251,17 +5255,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -5284,32 +5288,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -5323,17 +5327,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -5371,17 +5375,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -5395,7 +5399,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5467,7 +5471,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5525,7 +5529,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -5539,7 +5543,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5597,7 +5601,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -5611,7 +5615,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5669,7 +5673,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -5683,7 +5687,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5741,7 +5745,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -5755,7 +5759,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5813,7 +5817,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -5827,7 +5831,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5875,17 +5879,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -5899,7 +5903,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5947,17 +5951,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5971,7 +5975,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6043,7 +6047,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6101,7 +6105,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -6115,7 +6119,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6173,7 +6177,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -6187,7 +6191,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6245,7 +6249,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -6259,7 +6263,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6317,7 +6321,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -6331,7 +6335,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6389,7 +6393,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6403,7 +6407,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6451,17 +6455,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6475,7 +6479,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6533,7 +6537,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6551,7 +6555,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6627,7 +6631,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6703,7 +6707,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6751,17 +6755,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -6779,7 +6783,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6855,7 +6859,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6931,7 +6935,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -7007,7 +7011,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7055,15 +7059,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -7079,7 +7087,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7127,12 +7135,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7155,7 +7163,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7203,12 +7211,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -7231,7 +7239,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7293,7 +7301,7 @@
         </is>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -7303,7 +7311,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7313,7 +7321,7 @@
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -7361,7 +7369,7 @@
         </is>
       </c>
       <c r="J65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -7371,7 +7379,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7381,7 +7389,7 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -7425,7 +7433,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -7443,7 +7451,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -7519,7 +7527,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -7643,17 +7651,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -7671,7 +7679,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -7747,7 +7755,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7805,7 +7813,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -7823,7 +7831,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7899,7 +7907,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7957,7 +7965,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -7975,7 +7983,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8051,7 +8059,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8127,7 +8135,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8165,27 +8173,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -8199,12 +8207,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -8233,31 +8241,31 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -8267,17 +8275,17 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -8296,17 +8304,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -8316,12 +8324,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -8335,12 +8343,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -8369,12 +8377,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -8403,12 +8411,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -8437,27 +8445,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -8471,12 +8479,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -8505,27 +8513,27 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -8539,12 +8547,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -8568,17 +8576,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -8588,16 +8596,16 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -8607,17 +8615,17 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -8641,12 +8649,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -8661,7 +8669,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -8672,26 +8680,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -8831,12 +8831,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -8907,12 +8907,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -8950,22 +8950,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -8983,12 +8983,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -9059,12 +9059,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -9178,20 +9178,24 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
@@ -9207,12 +9211,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -9250,22 +9254,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -9283,12 +9287,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -9326,22 +9330,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -9359,12 +9363,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -9397,12 +9401,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -9412,7 +9416,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -9428,18 +9432,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P93" t="b">
         <v>0</v>
       </c>
@@ -9455,65 +9467,61 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -9537,29 +9545,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -9571,17 +9575,17 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P95" t="b">
@@ -9609,7 +9613,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9681,12 +9685,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -9720,12 +9724,12 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P97" t="b">
@@ -9753,12 +9757,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9768,12 +9772,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -9787,12 +9791,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -9825,27 +9829,27 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J99" t="b">
@@ -9859,12 +9863,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -9897,12 +9901,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9931,12 +9935,12 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9969,12 +9973,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9989,7 +9993,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -10003,12 +10007,12 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -10041,12 +10045,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -10061,7 +10065,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -10075,12 +10079,12 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -10113,12 +10117,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -10147,12 +10151,12 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -10185,12 +10189,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -10219,12 +10223,12 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -10257,12 +10261,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -10272,7 +10276,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -10291,12 +10295,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -10324,17 +10328,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -10364,7 +10368,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -10397,27 +10401,27 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -10431,12 +10435,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -10469,12 +10473,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -10489,7 +10493,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10503,12 +10507,12 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -10541,12 +10545,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -10556,7 +10560,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -10575,12 +10579,12 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -10613,22 +10617,22 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10647,12 +10651,12 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -10685,12 +10689,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -10705,7 +10709,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -10719,12 +10723,12 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -10757,12 +10761,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -10796,7 +10800,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -10829,12 +10833,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -10849,7 +10853,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -10863,12 +10867,12 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -10901,12 +10905,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -10935,12 +10939,12 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -10973,7 +10977,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11007,7 +11011,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11045,12 +11049,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -11060,12 +11064,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J116" t="b">
@@ -11079,12 +11083,12 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -11112,34 +11116,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="b">
         <v>0</v>
       </c>
@@ -11151,12 +11151,12 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -11189,27 +11189,27 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -11223,12 +11223,12 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -11271,17 +11271,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -11295,7 +11295,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -11367,7 +11367,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -11439,7 +11439,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J122" t="b">
@@ -11511,7 +11511,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J123" t="b">
@@ -11583,7 +11583,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -11727,7 +11727,7 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -11775,19 +11775,15 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="b">
         <v>0</v>
       </c>
@@ -11799,7 +11795,7 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -11847,17 +11843,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -11871,7 +11867,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -11909,7 +11905,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -11943,7 +11939,7 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -11981,7 +11977,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12015,7 +12011,7 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -12063,17 +12059,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -12087,7 +12083,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12145,7 +12141,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -12159,7 +12155,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12217,7 +12213,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J132" t="b">
@@ -12231,7 +12227,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -12303,7 +12299,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -12361,7 +12357,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J134" t="b">
@@ -12375,7 +12371,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -12433,7 +12429,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J135" t="b">
@@ -12447,7 +12443,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -12505,7 +12501,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J136" t="b">
@@ -12519,7 +12515,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -12567,19 +12563,15 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="b">
         <v>0</v>
       </c>
@@ -12591,7 +12583,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -12629,12 +12621,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -12644,7 +12636,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12663,12 +12655,12 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -12701,27 +12693,27 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J139" t="b">
@@ -12735,12 +12727,12 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -12773,7 +12765,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -12807,7 +12799,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -12845,7 +12837,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -12917,7 +12909,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -12937,7 +12929,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J142" t="b">
@@ -12951,7 +12943,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -12989,7 +12981,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13009,7 +13001,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J143" t="b">
@@ -13023,7 +13015,7 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -13061,7 +13053,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13095,7 +13087,7 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13133,12 +13125,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -13148,12 +13140,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -13167,12 +13159,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -13200,55 +13192,47 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -13286,7 +13270,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -13319,12 +13303,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -13362,7 +13346,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -13395,12 +13379,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13438,7 +13422,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -13471,12 +13455,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -13514,22 +13498,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J150" t="b">
@@ -13547,12 +13531,12 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -13590,7 +13574,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -13605,7 +13589,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J151" t="b">
@@ -13623,12 +13607,12 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -13666,7 +13650,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -13699,12 +13683,12 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -13742,20 +13726,24 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J153" t="b">
         <v>0</v>
       </c>
@@ -13771,12 +13759,12 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -13814,17 +13802,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13847,12 +13835,12 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -13890,17 +13878,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -13923,12 +13911,12 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -13961,12 +13949,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -13976,12 +13964,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J156" t="b">
@@ -13992,18 +13980,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P156" t="b">
         <v>0</v>
       </c>
@@ -14024,36 +14020,36 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14063,17 +14059,17 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -14097,12 +14093,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -14112,7 +14108,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14131,12 +14127,12 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
@@ -14160,12 +14156,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -14180,30 +14176,26 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -14211,13 +14203,9 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+      <c r="O159" t="inlineStr"/>
       <c r="P159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -14246,7 +14234,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -14261,7 +14249,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J160" t="b">
@@ -14279,12 +14267,12 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -14322,7 +14310,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -14355,12 +14343,12 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -14398,7 +14386,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -14431,12 +14419,12 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -14474,22 +14462,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J163" t="b">
@@ -14507,12 +14495,12 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -14550,7 +14538,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -14583,12 +14571,12 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -14626,7 +14614,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -14641,7 +14629,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J165" t="b">
@@ -14659,12 +14647,12 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -14702,7 +14690,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -14717,7 +14705,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -14735,12 +14723,12 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -14778,7 +14766,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -14811,12 +14799,12 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -14854,7 +14842,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -14887,12 +14875,12 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -14925,27 +14913,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -14956,18 +14944,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P169" t="b">
         <v>0</v>
       </c>
@@ -14993,7 +14989,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -15003,17 +14999,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -15027,7 +15023,7 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -15061,27 +15057,27 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J171" t="b">
@@ -15095,12 +15091,12 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
@@ -15124,32 +15120,32 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J172" t="b">
@@ -15163,12 +15159,12 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
@@ -15192,36 +15188,36 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -15231,17 +15227,17 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -15265,12 +15261,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -15280,12 +15276,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J174" t="b">
@@ -15299,12 +15295,12 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O174" t="inlineStr"/>
@@ -15328,17 +15324,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -15348,16 +15344,16 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -15367,17 +15363,17 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -15401,12 +15397,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -15421,7 +15417,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -15432,26 +15428,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
       <c r="P176" t="b">
         <v>0</v>
       </c>
@@ -15482,7 +15470,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -15515,12 +15503,12 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -15558,7 +15546,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -15573,7 +15561,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J178" t="b">
@@ -15591,12 +15579,12 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -15634,7 +15622,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -15649,7 +15637,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J179" t="b">
@@ -15667,12 +15655,12 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -15710,22 +15698,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J180" t="b">
@@ -15743,12 +15731,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -15786,7 +15774,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -15819,12 +15807,12 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -15862,7 +15850,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -15877,7 +15865,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J182" t="b">
@@ -15895,12 +15883,12 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -15938,20 +15926,24 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J183" t="b">
         <v>0</v>
       </c>
@@ -15967,12 +15959,12 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -16010,22 +16002,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J184" t="b">
@@ -16043,12 +16035,12 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -16086,22 +16078,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J185" t="b">
@@ -16119,12 +16111,12 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -16157,51 +16149,127 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
           <t>ELECTIVE</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
+      <c r="I187" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="J186" t="b">
-        <v>0</v>
-      </c>
-      <c r="K186" t="inlineStr">
+      <c r="J187" t="b">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="b">
-        <v>0</v>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16253,7 +16321,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C202, C203, L406, L408</t>
+          <t>C204, C304, C305, L402</t>
         </is>
       </c>
     </row>
@@ -16270,7 +16338,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C203, C204</t>
+          <t>C101, C104, C205</t>
         </is>
       </c>
     </row>
@@ -16287,7 +16355,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C204, C205</t>
+          <t>C104, C204, C303</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16372,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C205, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -16321,7 +16389,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C302, C303</t>
+          <t>C104, C303, C305</t>
         </is>
       </c>
     </row>
@@ -16338,7 +16406,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C303, C304</t>
+          <t>C102, C202, C203</t>
         </is>
       </c>
     </row>
@@ -16355,7 +16423,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C304, C305</t>
+          <t>C202, C303, C305</t>
         </is>
       </c>
     </row>
@@ -16372,7 +16440,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C101, C203, C304</t>
         </is>
       </c>
     </row>
@@ -16389,7 +16457,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C304</t>
+          <t>C102, C203, C205</t>
         </is>
       </c>
     </row>
@@ -16406,7 +16474,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C305</t>
+          <t>C202, C205, C304</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16585,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C305]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -16545,17 +16613,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C305]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -16611,17 +16679,17 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -16654,7 +16722,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -16677,12 +16745,12 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -17144,7 +17212,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -17177,7 +17245,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -17210,7 +17278,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -17243,12 +17311,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -17276,12 +17344,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -17314,7 +17382,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -17347,7 +17415,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -17380,7 +17448,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -17408,12 +17476,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -17441,12 +17509,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -17568,7 +17636,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C305]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -17578,7 +17646,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -17596,17 +17664,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C305]</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -17662,12 +17730,12 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
@@ -17705,7 +17773,7 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C003]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -17728,17 +17796,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="E8" s="12" t="inlineStr">
@@ -18195,7 +18263,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -18228,7 +18296,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -18261,7 +18329,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -18294,12 +18362,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -18327,12 +18395,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -18365,7 +18433,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -18398,7 +18466,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -18431,7 +18499,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -18459,12 +18527,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -18492,12 +18560,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -18657,7 +18725,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C305]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -18713,17 +18781,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C305]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -18746,7 +18814,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -18784,7 +18852,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -19246,7 +19314,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -19279,7 +19347,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -19312,7 +19380,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -19345,12 +19413,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -19378,12 +19446,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -19416,7 +19484,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -19449,7 +19517,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -19482,7 +19550,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -19510,12 +19578,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -19543,12 +19611,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -19670,7 +19738,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -19678,9 +19746,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="13" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -19698,17 +19766,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C202]</t>
+          <t>CS161 [C304]</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C205]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C302]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -19764,17 +19832,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C202]</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>CS161 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C302]</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>DS161 [C305]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -19797,7 +19865,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -19828,19 +19896,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C205]</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>DS161 [C305]</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20297,7 +20365,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -20330,7 +20398,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -20363,7 +20431,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -20396,12 +20464,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -20429,12 +20497,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -20467,7 +20535,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -20500,7 +20568,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -20533,7 +20601,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -20561,12 +20629,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -20594,12 +20662,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -20721,7 +20789,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -20749,17 +20817,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -20818,19 +20886,19 @@
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C202]</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C304]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -20861,9 +20929,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -20881,17 +20949,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
-        </is>
-      </c>
-      <c r="C8" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C003]</t>
+          <t>HS161 [C303]</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C304]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20922,9 +20990,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -21348,7 +21416,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -21381,7 +21449,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -21414,7 +21482,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -21447,12 +21515,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -21480,12 +21548,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -21518,7 +21586,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -21551,7 +21619,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -21584,7 +21652,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -21612,12 +21680,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -21645,12 +21713,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -21772,7 +21840,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -21782,12 +21850,12 @@
       </c>
       <c r="E3" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>EC161 [C304]</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C304]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -21800,17 +21868,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="C4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C205]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -21871,17 +21939,17 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
-        </is>
-      </c>
-      <c r="D6" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C003]</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
+          <t>HS161 [C205]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -21899,7 +21967,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L208]</t>
+          <t>CS161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -21912,9 +21980,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -21930,9 +21998,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
+      <c r="B8" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -21945,9 +22013,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -21978,9 +22046,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -22399,7 +22467,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -22432,7 +22500,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -22465,7 +22533,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -22498,12 +22566,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -22531,12 +22599,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -22569,7 +22637,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -22602,7 +22670,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -22635,7 +22703,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -22663,12 +22731,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -22696,12 +22764,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -22812,7 +22880,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22839,17 +22907,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C302]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -22908,17 +22976,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 [C104]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -22950,7 +23018,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -22972,12 +23040,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>EC161 [C304]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -23009,7 +23077,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -23111,27 +23179,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name [C203]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [C102]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type [C205]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs [C202]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs [C205]</t>
         </is>
       </c>
     </row>
@@ -23143,27 +23211,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C302]</t>
+          <t>Problem Solving [C205]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C205]</t>
+          <t>3-0-2-0-4 [C101]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C205]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C205]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -23175,27 +23243,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C302]</t>
+          <t>Introduction to data science and artifical inteligance [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C202]</t>
+          <t>2-0-0-0-2 [C203]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C205]</t>
+          <t>Pre-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C302]</t>
+          <t>2/2 [C305]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -23207,7 +23275,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C302]</t>
+          <t>Digital Design [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -23217,17 +23285,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C302]</t>
+          <t>Post-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C205]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -23239,27 +23307,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>English Language [C302]</t>
+          <t>English Language [C304]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C302]</t>
+          <t>3-0-0-0-3 [C303]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C205]</t>
+          <t>Full Sem [C302]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C205]</t>
+          <t>3/3 [C104]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -23271,27 +23339,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Statistics [C302]</t>
+          <t>Statistics [C305]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C202]</t>
+          <t>2-0-0-0-2 [C205]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C205]</t>
+          <t>Pre-Mid Only [C203]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C302]</t>
+          <t>2/2 [C203]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -23308,22 +23376,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C202]</t>
+          <t>2-0-0-0-2 [C101]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C302]</t>
+          <t>Post-Mid Only [C303]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C302]</t>
+          <t>2/2 [C204]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -23359,27 +23427,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course [C104]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code [C305]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom [C304]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C003]</t>
+          <t>Tutorial Slot - Classroom [C205]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [C203]</t>
         </is>
       </c>
     </row>
@@ -23391,27 +23459,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23423,27 +23491,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23455,27 +23523,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23487,27 +23555,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23519,27 +23587,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23551,27 +23619,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23583,27 +23651,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23615,27 +23683,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23647,27 +23715,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23679,27 +23747,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -23799,7 +23867,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -23809,12 +23877,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C304]</t>
         </is>
       </c>
     </row>
@@ -23826,17 +23894,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C002]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C302]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS161 [C304]</t>
+          <t>HS161 [C205]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -23900,12 +23968,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -23922,7 +23990,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L208]</t>
+          <t>CS161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -23937,7 +24005,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -23954,7 +24022,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>MA162 [C302]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -23969,7 +24037,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -24001,7 +24069,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -24098,27 +24166,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L403]</t>
+          <t>Course Name [C002]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L403]</t>
+          <t>L-T-P-S-C [C002]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L403]</t>
+          <t>Term Type [C002]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L404]</t>
+          <t>Lectures Hrs [C002]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L404]</t>
+          <t>Tutorials Hrs [C002]</t>
         </is>
       </c>
     </row>
@@ -24130,27 +24198,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C303]</t>
+          <t>Problem Solving [C304]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C302]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C202]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C302]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C305]</t>
         </is>
       </c>
     </row>
@@ -24162,22 +24230,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C303]</t>
+          <t>Introduction to data science and artifical inteligance [C101]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C203]</t>
+          <t>2-0-0-0-2 [C303]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C303]</t>
+          <t>Pre-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C303]</t>
+          <t>2/2 [C101]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -24194,27 +24262,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C303]</t>
+          <t>Digital Design [C102]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C303]</t>
+          <t>3-0-2-0-2 [C202]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C303]</t>
+          <t>Post-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C305]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -24226,27 +24294,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>English Language [C303]</t>
+          <t>English Language [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C303]</t>
+          <t>3-0-0-0-3 [C204]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C202]</t>
         </is>
       </c>
     </row>
@@ -24258,12 +24326,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Statistics [C303]</t>
+          <t>Statistics [C205]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C203]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -24273,12 +24341,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C303]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -24290,27 +24358,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Probability [C303]</t>
+          <t>Probability [C304]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C203]</t>
+          <t>2-0-0-0-2 [C104]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C303]</t>
+          <t>Post-Mid Only [C304]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C303]</t>
+          <t>2/2 [C202]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -24346,27 +24414,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [L403]</t>
+          <t>Course [C001]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [L403]</t>
+          <t>Course Code [C001]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L403]</t>
+          <t>Lecture Slot - Classroom [C001]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L403]</t>
+          <t>Tutorial Slot - Classroom [C001]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L404]</t>
+          <t>L-T-P-S-C [C001]</t>
         </is>
       </c>
     </row>
@@ -24378,27 +24446,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24410,27 +24478,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24442,27 +24510,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24474,27 +24542,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24506,27 +24574,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24538,27 +24606,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24570,27 +24638,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24602,27 +24670,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24634,27 +24702,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -24666,27 +24734,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable.xlsx
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>40.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="E9" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="E17" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="E25" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>150</v>
+        <v>4.5</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P187"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,17 +2783,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -2807,7 +2807,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2879,7 +2879,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2951,7 +2951,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -2999,19 +2999,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -3023,7 +3019,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3071,17 +3067,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3095,7 +3091,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3167,7 +3163,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -3239,7 +3235,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3297,7 +3293,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -3311,7 +3307,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3383,7 +3379,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3455,7 +3451,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3527,7 +3523,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3575,17 +3571,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3599,7 +3595,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3657,7 +3653,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -3671,7 +3667,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3786,7 +3782,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3801,7 +3797,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -3815,12 +3811,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3858,7 +3854,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3887,12 +3883,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3935,17 +3931,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -3959,7 +3955,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4161,7 +4157,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -4175,7 +4171,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4233,7 +4229,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -4247,7 +4243,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4305,7 +4301,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -4319,7 +4315,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4391,7 +4387,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4439,17 +4435,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -4463,7 +4459,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4521,7 +4517,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -4535,7 +4531,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4573,7 +4569,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4607,7 +4603,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4645,27 +4641,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -4679,17 +4675,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -4717,27 +4713,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -4751,17 +4747,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -4789,12 +4785,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4828,7 +4824,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4861,12 +4857,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4895,12 +4891,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4933,12 +4929,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4967,12 +4963,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5005,12 +5001,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5039,12 +5035,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5077,12 +5073,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5111,12 +5107,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5149,27 +5145,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -5183,12 +5179,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -5216,32 +5212,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -5255,17 +5251,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -5288,32 +5284,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -5327,17 +5323,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -5375,17 +5371,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -5399,7 +5395,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5457,7 +5453,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -5471,7 +5467,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5529,7 +5525,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -5543,7 +5539,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5601,7 +5597,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -5615,7 +5611,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5687,7 +5683,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5745,7 +5741,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -5759,7 +5755,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5831,7 +5827,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5879,17 +5875,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -5903,7 +5899,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5951,17 +5947,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5975,7 +5971,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6047,7 +6043,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6105,7 +6101,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -6119,7 +6115,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6177,7 +6173,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -6191,7 +6187,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6263,7 +6259,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6321,7 +6317,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -6335,7 +6331,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6393,7 +6389,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6407,7 +6403,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6455,17 +6451,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6479,7 +6475,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6537,7 +6533,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6555,7 +6551,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6613,7 +6609,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -6631,7 +6627,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6689,7 +6685,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -6707,7 +6703,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6859,7 +6855,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -7011,7 +7007,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7069,7 +7065,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -7087,7 +7083,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7163,7 +7159,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7221,7 +7217,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -7239,7 +7235,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7287,17 +7283,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -7311,7 +7307,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7355,17 +7351,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -7379,7 +7375,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7509,7 +7505,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -7527,7 +7523,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -7603,7 +7599,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7965,7 +7961,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -7983,7 +7979,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8059,7 +8055,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8173,27 +8169,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -8207,12 +8203,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -8241,31 +8237,31 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -8275,17 +8271,17 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -8304,36 +8300,36 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -8343,17 +8339,17 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -8377,12 +8373,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -8411,12 +8407,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -8445,27 +8441,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -8479,12 +8475,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -8513,12 +8509,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -8537,7 +8533,7 @@
         </is>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -8552,12 +8548,12 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -8576,17 +8572,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -8596,7 +8592,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -8605,7 +8601,7 @@
         </is>
       </c>
       <c r="J82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -8615,17 +8611,17 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -8649,12 +8645,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -8669,7 +8665,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -8680,18 +8676,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -8722,7 +8726,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -8737,7 +8741,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -8755,12 +8759,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -8798,7 +8802,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -8813,7 +8817,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -8831,12 +8835,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -8874,22 +8878,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -8907,12 +8911,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -8950,22 +8954,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -8983,12 +8987,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9026,7 +9030,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -9041,7 +9045,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -9059,12 +9063,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9102,7 +9106,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -9135,12 +9139,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -9178,7 +9182,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -9211,12 +9215,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -9254,7 +9258,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -9269,7 +9273,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -9287,12 +9291,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -9330,7 +9334,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -9363,12 +9367,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -9401,59 +9405,51 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -9467,22 +9463,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -9501,27 +9497,31 @@
         </is>
       </c>
       <c r="J94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -9545,25 +9545,29 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -9575,17 +9579,17 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P95" t="b">
@@ -9613,7 +9617,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9685,27 +9689,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -9719,17 +9723,17 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P97" t="b">
@@ -9757,12 +9761,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9772,12 +9776,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -9791,12 +9795,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -9829,27 +9833,27 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J99" t="b">
@@ -9863,12 +9867,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -9901,12 +9905,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9921,7 +9925,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J100" t="b">
@@ -9935,12 +9939,12 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9973,12 +9977,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9993,7 +9997,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -10007,12 +10011,12 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -10045,12 +10049,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -10065,7 +10069,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -10079,12 +10083,12 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -10117,12 +10121,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -10137,7 +10141,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -10151,12 +10155,12 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -10189,12 +10193,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -10223,12 +10227,12 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -10261,12 +10265,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -10276,7 +10280,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -10295,12 +10299,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -10328,17 +10332,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -10351,7 +10355,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
@@ -10363,12 +10371,12 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -10401,12 +10409,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -10421,7 +10429,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -10435,12 +10443,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -10473,12 +10481,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -10493,7 +10501,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10507,12 +10515,12 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -10545,12 +10553,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -10560,7 +10568,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -10579,12 +10587,12 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -10617,22 +10625,22 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10651,12 +10659,12 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -10689,12 +10697,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -10709,7 +10717,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -10723,12 +10731,12 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -10761,12 +10769,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -10795,12 +10803,12 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -10833,12 +10841,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -10853,7 +10861,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -10867,12 +10875,12 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -10905,12 +10913,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -10925,7 +10933,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -10939,12 +10947,12 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -10977,7 +10985,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -10997,7 +11005,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J115" t="b">
@@ -11011,7 +11019,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11049,12 +11057,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -11064,12 +11072,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J116" t="b">
@@ -11083,12 +11091,12 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -11116,30 +11124,34 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
@@ -11151,12 +11163,12 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -11189,12 +11201,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -11209,7 +11221,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -11223,12 +11235,12 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -11271,17 +11283,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -11295,7 +11307,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -11367,7 +11379,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -11439,7 +11451,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -11569,7 +11581,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J123" t="b">
@@ -11583,7 +11595,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -11641,7 +11653,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J124" t="b">
@@ -11655,7 +11667,7 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -11727,7 +11739,7 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -11775,15 +11787,19 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J126" t="b">
         <v>0</v>
       </c>
@@ -11795,7 +11811,7 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -11853,7 +11869,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -11867,7 +11883,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -11905,7 +11921,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -11977,7 +11993,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12059,17 +12075,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -12083,7 +12099,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12141,7 +12157,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -12155,7 +12171,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12285,7 +12301,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -12299,7 +12315,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -12371,7 +12387,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -12443,7 +12459,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -12515,7 +12531,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -12563,15 +12579,19 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J137" t="b">
         <v>0</v>
       </c>
@@ -12583,7 +12603,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -12621,12 +12641,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -12636,7 +12656,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12655,12 +12675,12 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -12693,22 +12713,22 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12727,12 +12747,12 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -12765,7 +12785,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -12799,7 +12819,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -12837,7 +12857,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -12857,7 +12877,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J141" t="b">
@@ -12871,7 +12891,7 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -12909,7 +12929,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -12943,7 +12963,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -12981,7 +13001,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13001,7 +13021,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J143" t="b">
@@ -13015,7 +13035,7 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -13053,7 +13073,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13087,7 +13107,7 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13125,12 +13145,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -13140,12 +13160,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -13159,12 +13179,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -13192,47 +13212,55 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -13270,7 +13298,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -13285,7 +13313,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -13303,12 +13331,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -13346,7 +13374,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -13361,7 +13389,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J148" t="b">
@@ -13379,12 +13407,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13422,22 +13450,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J149" t="b">
@@ -13455,12 +13483,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -13498,22 +13526,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J150" t="b">
@@ -13531,12 +13559,12 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -13574,7 +13602,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -13589,7 +13617,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J151" t="b">
@@ -13607,12 +13635,12 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -13650,7 +13678,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -13683,12 +13711,12 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -13726,7 +13754,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -13759,12 +13787,12 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -13802,7 +13830,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -13835,12 +13863,12 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -13878,7 +13906,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -13893,7 +13921,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J155" t="b">
@@ -13911,12 +13939,12 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -13949,12 +13977,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -13964,12 +13992,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J156" t="b">
@@ -13980,26 +14008,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr"/>
       <c r="P156" t="b">
         <v>0</v>
       </c>
@@ -14020,17 +14040,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -14040,16 +14060,16 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14059,17 +14079,17 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -14093,12 +14113,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -14108,7 +14128,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14127,12 +14147,12 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
@@ -14156,12 +14176,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -14176,7 +14196,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14185,17 +14205,21 @@
         </is>
       </c>
       <c r="J159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -14203,9 +14227,13 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -14234,7 +14262,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -14267,12 +14295,12 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -14310,7 +14338,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -14343,12 +14371,12 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -14386,22 +14414,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J162" t="b">
@@ -14419,12 +14447,12 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -14462,22 +14490,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J163" t="b">
@@ -14495,12 +14523,12 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -14538,7 +14566,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -14553,7 +14581,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J164" t="b">
@@ -14571,12 +14599,12 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -14614,7 +14642,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -14629,7 +14657,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J165" t="b">
@@ -14647,12 +14675,12 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -14690,7 +14718,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -14705,7 +14733,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -14723,12 +14751,12 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -14766,7 +14794,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -14804,7 +14832,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -14842,7 +14870,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -14875,12 +14903,12 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -14913,27 +14941,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -14944,26 +14972,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
       <c r="P169" t="b">
         <v>0</v>
       </c>
@@ -14989,7 +15009,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -15009,7 +15029,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -15023,7 +15043,7 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -15057,27 +15077,27 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J171" t="b">
@@ -15091,12 +15111,12 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
@@ -15120,32 +15140,32 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J172" t="b">
@@ -15159,12 +15179,12 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
@@ -15188,36 +15208,36 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -15227,17 +15247,17 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -15261,12 +15281,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -15276,12 +15296,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J174" t="b">
@@ -15295,12 +15315,12 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O174" t="inlineStr"/>
@@ -15324,17 +15344,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -15344,7 +15364,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -15353,7 +15373,7 @@
         </is>
       </c>
       <c r="J175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -15363,17 +15383,17 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -15397,12 +15417,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -15417,7 +15437,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -15428,18 +15448,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P176" t="b">
         <v>0</v>
       </c>
@@ -15470,7 +15498,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -15485,7 +15513,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J177" t="b">
@@ -15503,12 +15531,12 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -15546,7 +15574,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -15561,7 +15589,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J178" t="b">
@@ -15579,12 +15607,12 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -15622,22 +15650,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J179" t="b">
@@ -15655,12 +15683,12 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -15698,22 +15726,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J180" t="b">
@@ -15731,12 +15759,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -15774,7 +15802,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -15789,7 +15817,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J181" t="b">
@@ -15807,12 +15835,12 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -15850,7 +15878,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -15883,12 +15911,12 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -15926,7 +15954,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -15959,12 +15987,12 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -16002,7 +16030,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -16017,7 +16045,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J184" t="b">
@@ -16035,12 +16063,12 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -16078,7 +16106,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -16111,12 +16139,12 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -16149,12 +16177,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -16164,7 +16192,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -16180,96 +16208,20 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
       <c r="P186" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J187" t="b">
-        <v>1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16321,7 +16273,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C204, C304, C305, L402</t>
+          <t>C101, C204, C205, L106, L404</t>
         </is>
       </c>
     </row>
@@ -16338,7 +16290,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C104, C205</t>
+          <t>C102, C202, C205</t>
         </is>
       </c>
     </row>
@@ -16355,7 +16307,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C204, C303</t>
+          <t>C104, C204, C302</t>
         </is>
       </c>
     </row>
@@ -16389,7 +16341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C303, C305</t>
+          <t>C202, C305</t>
         </is>
       </c>
     </row>
@@ -16406,7 +16358,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C202, C203</t>
+          <t>C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16375,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C303, C305</t>
+          <t>C204, C302, C303</t>
         </is>
       </c>
     </row>
@@ -16440,7 +16392,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C203, C304</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -16457,7 +16409,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C203, C205</t>
+          <t>C102, C203, C302</t>
         </is>
       </c>
     </row>
@@ -16474,7 +16426,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202, C205, C304</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -16595,12 +16547,12 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -16618,17 +16570,17 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C302]</t>
+          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -16679,22 +16631,22 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C203]</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -16722,12 +16674,12 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -16745,17 +16697,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C203]</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C302]</t>
+          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -17212,12 +17164,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -17245,12 +17197,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -17278,7 +17230,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -17344,12 +17296,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -17377,12 +17329,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -17410,12 +17362,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -17443,12 +17395,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -17476,7 +17428,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -17509,12 +17461,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -17636,7 +17588,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C305]</t>
+          <t>MA161 [C303]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -17646,7 +17598,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -17669,7 +17621,7 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>DS161 [C102]</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
@@ -17684,7 +17636,7 @@
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -17730,7 +17682,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
@@ -17740,7 +17692,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -17796,22 +17748,22 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C203]</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C302]</t>
+          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>CS161 [C305]</t>
         </is>
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -18263,12 +18215,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -18296,12 +18248,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -18329,7 +18281,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -18395,12 +18347,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -18428,12 +18380,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -18461,12 +18413,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -18494,12 +18446,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -18527,7 +18479,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -18560,12 +18512,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -18687,7 +18639,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -18715,12 +18667,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
@@ -18781,17 +18733,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C305]</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -18814,7 +18766,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -18847,12 +18799,12 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -19314,12 +19266,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -19347,12 +19299,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -19380,7 +19332,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -19446,12 +19398,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -19479,12 +19431,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -19512,12 +19464,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -19545,12 +19497,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -19578,7 +19530,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -19611,12 +19563,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -19738,7 +19690,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -19746,9 +19698,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -19766,17 +19718,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C205]</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C302]</t>
+          <t>CS161 [C102]</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C304]</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C303]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -19835,14 +19787,14 @@
           <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C302]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>DS161 [C305]</t>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>HS161 [C303]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -19896,19 +19848,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
-        <is>
-          <t>HS161 [C205]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>DS161 [C305]</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C302]</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20365,12 +20317,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -20398,12 +20350,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -20431,7 +20383,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -20497,12 +20449,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -20530,12 +20482,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -20563,12 +20515,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -20596,12 +20548,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -20629,7 +20581,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -20662,12 +20614,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -20789,7 +20741,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -20827,7 +20779,7 @@
       </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C202]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -20883,22 +20835,22 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C202]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C304]</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -20916,7 +20868,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -20929,9 +20881,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -20949,17 +20901,17 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C303]</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C304]</t>
+          <t>HS161 [C204]</t>
+        </is>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20990,9 +20942,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -21416,12 +21368,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -21449,12 +21401,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -21482,7 +21434,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -21548,12 +21500,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -21581,12 +21533,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -21614,12 +21566,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -21647,12 +21599,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -21680,7 +21632,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -21713,12 +21665,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -21840,7 +21792,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -21850,12 +21802,12 @@
       </c>
       <c r="E3" s="14" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C304]</t>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -21868,17 +21820,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="16" t="inlineStr">
         <is>
-          <t>MA162 [C202]</t>
+          <t>MA162 [C205]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -21934,22 +21886,22 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
+          <t>HS161 [C101]</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>MA162 [C305]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -21967,7 +21919,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -21980,9 +21932,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -21998,9 +21950,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
-        <is>
-          <t>MA162 [C202]</t>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -22013,9 +21965,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -22046,9 +21998,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -22467,12 +22419,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -22500,12 +22452,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -22533,7 +22485,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -22599,12 +22551,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -22632,12 +22584,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -22665,12 +22617,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -22698,12 +22650,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -22731,7 +22683,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -22764,12 +22716,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -22880,7 +22832,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22907,7 +22859,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -22917,7 +22869,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C202]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -22971,22 +22923,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C202]</t>
+          <t>EC161 [C304]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -23003,7 +22955,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -23018,7 +22970,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -23035,17 +22987,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C303]</t>
+          <t>HS161 [C001]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -23077,7 +23029,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -23179,27 +23131,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C203]</t>
+          <t>Course Name [C004]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C102]</t>
+          <t>L-T-P-S-C [C004]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C205]</t>
+          <t>Term Type [C004]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C202]</t>
+          <t>Lectures Hrs [C004]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C205]</t>
+          <t>Tutorials Hrs [C004]</t>
         </is>
       </c>
     </row>
@@ -23211,7 +23163,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C205]</t>
+          <t>Problem Solving [C204]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -23221,17 +23173,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C302]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23195,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C204]</t>
+          <t>Introduction to data science and artifical inteligance [C205]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -23253,17 +23205,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C205]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C305]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -23275,27 +23227,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C204]</t>
+          <t>Digital Design [C302]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C302]</t>
+          <t>3-0-2-0-2 [C303]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C204]</t>
+          <t>Post-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C305]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C305]</t>
         </is>
       </c>
     </row>
@@ -23307,27 +23259,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>English Language [C304]</t>
+          <t>English Language [C303]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C303]</t>
+          <t>3-0-0-0-3 [C102]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C302]</t>
+          <t>Full Sem [C104]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C104]</t>
+          <t>3/3 [C202]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C101]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -23339,27 +23291,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Statistics [C305]</t>
+          <t>Statistics [C304]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C205]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C203]</t>
+          <t>Pre-Mid Only [C303]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C203]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C101]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -23371,27 +23323,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Probability [C302]</t>
+          <t>Probability [C101]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C101]</t>
+          <t>2-0-0-0-2 [C202]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C303]</t>
+          <t>Post-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C204]</t>
+          <t>2/2 [C203]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -23427,27 +23379,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C104]</t>
+          <t>Course [C004]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C305]</t>
+          <t>Course Code [C004]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C304]</t>
+          <t>Lecture Slot - Classroom [C004]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C205]</t>
+          <t>Tutorial Slot - Classroom [C004]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C203]</t>
+          <t>L-T-P-S-C [C004]</t>
         </is>
       </c>
     </row>
@@ -23459,27 +23411,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23491,27 +23443,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23523,27 +23475,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23555,27 +23507,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23587,27 +23539,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23619,27 +23571,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23651,27 +23603,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23683,27 +23635,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23715,27 +23667,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23747,27 +23699,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -23867,7 +23819,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -23877,12 +23829,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -23894,17 +23846,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [L406]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA162 [C302]</t>
+          <t>MA162 [C305]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -23963,17 +23915,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>MA162 [C104]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -23990,7 +23942,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -24005,7 +23957,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -24022,7 +23974,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C302]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -24037,7 +23989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -24069,7 +24021,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -24166,27 +24118,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C002]</t>
+          <t>Course Name [L407]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C002]</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C002]</t>
+          <t>Term Type [L407]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C002]</t>
+          <t>Lectures Hrs [L405]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C002]</t>
+          <t>Tutorials Hrs [L402]</t>
         </is>
       </c>
     </row>
@@ -24198,27 +24150,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C304]</t>
+          <t>Problem Solving [C205]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C202]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C202]</t>
+          <t>Full Sem [C302]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C302]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C305]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -24230,7 +24182,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C101]</t>
+          <t>Introduction to data science and artifical inteligance [C102]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -24240,7 +24192,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C204]</t>
+          <t>Pre-Mid Only [C303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -24250,7 +24202,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -24262,12 +24214,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C102]</t>
+          <t>Digital Design [C305]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C202]</t>
+          <t>3-0-2-0-2 [C305]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -24277,12 +24229,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C305]</t>
+          <t>3/3 [C302]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C101]</t>
         </is>
       </c>
     </row>
@@ -24294,27 +24246,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>English Language [C204]</t>
+          <t>English Language [C304]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C204]</t>
+          <t>3-0-0-0-3 [C203]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C305]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C104]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C202]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -24326,27 +24278,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Statistics [C205]</t>
+          <t>Statistics [C104]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C303]</t>
+          <t>Pre-Mid Only [C101]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C104]</t>
+          <t>2/2 [C202]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C305]</t>
         </is>
       </c>
     </row>
@@ -24363,22 +24315,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C104]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C304]</t>
+          <t>Post-Mid Only [C205]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2/2 [C202]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -24414,27 +24366,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C001]</t>
+          <t>Course [L408]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C001]</t>
+          <t>Course Code [L402]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C001]</t>
+          <t>Lecture Slot - Classroom [L408]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C001]</t>
+          <t>Tutorial Slot - Classroom [L402]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C001]</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
     </row>
@@ -24446,27 +24398,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24478,27 +24430,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24510,27 +24462,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24542,27 +24494,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24574,27 +24526,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24606,27 +24558,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24638,27 +24590,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24670,27 +24622,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24702,27 +24654,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -24734,27 +24686,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
